--- a/storage/eleaning-role-permission.xlsx
+++ b/storage/eleaning-role-permission.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>Upload excel tạo role và permision</t>
+  </si>
+  <si>
+    <t>Thoát khóa học</t>
+  </si>
+  <si>
+    <t>courser-get-off</t>
   </si>
 </sst>
 </file>
@@ -615,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,6 +1123,20 @@
       </c>
       <c r="D35" s="2" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
